--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -223,6 +223,41 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="1">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
+      <x:fill>
+        <x:patternFill patternType="none">
+          <x:fgColor indexed="64"/>
+          <x:bgColor indexed="64"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -271,7 +306,7 @@
     <x:tableColumn id="1" name="Dosage"/>
     <x:tableColumn id="2" name="Drug"/>
     <x:tableColumn id="3" name="Patient"/>
-    <x:tableColumn id="4" name="Date"/>
+    <x:tableColumn id="4" name="Date" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -169,7 +169,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -169,7 +169,6 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FF00FFFF"/>
-        <x:bgColor rgb="FF00FFFF"/>
       </x:patternFill>
     </x:fill>
   </x:fills>
@@ -223,6 +222,38 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:dxfs count="1">
+    <x:dxf>
+      <x:font>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color rgb="FF000000"/>
+        <x:name val="Calibri"/>
+        <x:family val="2"/>
+      </x:font>
+      <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
+      <x:fill>
+        <x:patternFill patternType="none"/>
+      </x:fill>
+      <x:border diagonalUp="0" diagonalDown="0">
+        <x:left style="none">
+          <x:color rgb="FF000000"/>
+        </x:left>
+        <x:right style="none">
+          <x:color rgb="FF000000"/>
+        </x:right>
+        <x:top style="none">
+          <x:color rgb="FF000000"/>
+        </x:top>
+        <x:bottom style="none">
+          <x:color rgb="FF000000"/>
+        </x:bottom>
+        <x:diagonal style="none">
+          <x:color rgb="FF000000"/>
+        </x:diagonal>
+      </x:border>
+    </x:dxf>
+  </x:dxfs>
 </x:styleSheet>
 </file>
 
@@ -271,7 +302,7 @@
     <x:tableColumn id="1" name="Dosage"/>
     <x:tableColumn id="2" name="Drug"/>
     <x:tableColumn id="3" name="Patient"/>
-    <x:tableColumn id="4" name="Date"/>
+    <x:tableColumn id="4" name="Date" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -224,34 +224,12 @@
   </x:cellStyles>
   <x:dxfs count="1">
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -191,7 +191,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -199,9 +199,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -254,20 +254,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="F16:I19" totalsRowShown="0">
-  <x:autoFilter ref="F16:I19"/>
-  <x:tableColumns count="4">
-    <x:tableColumn id="1" name="House Street"/>
-    <x:tableColumn id="2" name="Class Type"/>
-    <x:tableColumn id="3" name="Name"/>
-    <x:tableColumn id="4" name="Age"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:A4" totalsRowShown="0">
   <x:autoFilter ref="A2:A4"/>
   <x:tableColumns count="1">
@@ -277,7 +264,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="C2:H5" totalsRowShown="0">
   <x:autoFilter ref="C2:H5"/>
   <x:tableColumns count="6">
@@ -292,7 +279,7 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A8:D13" totalsRowShown="0">
   <x:autoFilter ref="A8:D13"/>
   <x:tableColumns count="4">
@@ -305,9 +292,22 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="F8:I11" totalsRowShown="0">
   <x:autoFilter ref="F8:I11"/>
+  <x:tableColumns count="4">
+    <x:tableColumn id="1" name="House Street"/>
+    <x:tableColumn id="2" name="Class Type"/>
+    <x:tableColumn id="3" name="Name"/>
+    <x:tableColumn id="4" name="Age"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="F16:I19" totalsRowShown="0">
+  <x:autoFilter ref="F16:I19"/>
   <x:tableColumns count="4">
     <x:tableColumn id="1" name="House Street"/>
     <x:tableColumn id="2" name="Class Type"/>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -221,12 +221,10 @@
   </x:cellStyles>
   <x:dxfs count="1">
     <x:dxf>
-      <x:font/>
       <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
       <x:fill>
         <x:patternFill patternType="none"/>
       </x:fill>
-      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -236,7 +236,7 @@
   <x:tableColumns count="1">
     <x:tableColumn id="1" name="String"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
@@ -251,7 +251,7 @@
     <x:tableColumn id="5" name="Column5"/>
     <x:tableColumn id="6" name="Column6"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
@@ -264,7 +264,7 @@
     <x:tableColumn id="3" name="Patient"/>
     <x:tableColumn id="4" name="Date" dataDxfId="0"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
@@ -277,7 +277,7 @@
     <x:tableColumn id="3" name="Name"/>
     <x:tableColumn id="4" name="Age"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 
@@ -290,7 +290,7 @@
     <x:tableColumn id="3" name="Name"/>
     <x:tableColumn id="4" name="Age"/>
   </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
 </file>
 

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -222,9 +222,6 @@
   <x:dxfs count="1">
     <x:dxf>
       <x:numFmt numFmtId="14" formatCode="M/d/yyyy"/>
-      <x:fill>
-        <x:patternFill patternType="none"/>
-      </x:fill>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Tables/InsertingTables.xlsx
@@ -585,13 +585,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.780625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="5" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="15.585425" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.385425" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="12.195425" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.795425" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.520625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="9.900625" style="0" customWidth="1"/>
+    <x:col min="3" max="5" width="10.795425" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.435425" style="0" customWidth="1"/>
+    <x:col min="7" max="8" width="10.795425" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.215425" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
